--- a/scripts_on_ubuntu/L2_project/ARB_NFT.xlsx
+++ b/scripts_on_ubuntu/L2_project/ARB_NFT.xlsx
@@ -943,107 +943,211 @@
     </row>
     <row r="79" ht="16.5" customHeight="1">
       <c r="A79" s="3" t="n"/>
-      <c r="B79" s="2" t="inlineStr"/>
+      <c r="B79" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="80" ht="16.5" customHeight="1">
       <c r="A80" s="3" t="n"/>
-      <c r="B80" s="2" t="inlineStr"/>
+      <c r="B80" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="81" ht="16.5" customHeight="1">
       <c r="A81" s="3" t="n"/>
-      <c r="B81" s="2" t="inlineStr"/>
+      <c r="B81" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="82" ht="16.5" customHeight="1">
       <c r="A82" s="3" t="n"/>
-      <c r="B82" s="2" t="inlineStr"/>
+      <c r="B82" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="83" ht="16.5" customHeight="1">
       <c r="A83" s="3" t="n"/>
-      <c r="B83" s="2" t="inlineStr"/>
+      <c r="B83" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="84" ht="16.5" customHeight="1">
       <c r="A84" s="3" t="n"/>
-      <c r="B84" s="2" t="inlineStr"/>
+      <c r="B84" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="85" ht="16.5" customHeight="1">
       <c r="A85" s="3" t="n"/>
-      <c r="B85" s="2" t="inlineStr"/>
+      <c r="B85" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="86" ht="16.5" customHeight="1">
       <c r="A86" s="3" t="n"/>
-      <c r="B86" s="2" t="inlineStr"/>
+      <c r="B86" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="87" ht="16.5" customHeight="1">
       <c r="A87" s="3" t="n"/>
-      <c r="B87" s="2" t="inlineStr"/>
+      <c r="B87" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="88" ht="16.5" customHeight="1">
       <c r="A88" s="3" t="n"/>
-      <c r="B88" s="2" t="inlineStr"/>
+      <c r="B88" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="89" ht="16.5" customHeight="1">
       <c r="A89" s="3" t="n"/>
-      <c r="B89" s="2" t="inlineStr"/>
+      <c r="B89" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="90" ht="16.5" customHeight="1">
       <c r="A90" s="3" t="n"/>
-      <c r="B90" s="2" t="inlineStr"/>
+      <c r="B90" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="91" ht="16.5" customHeight="1">
       <c r="A91" s="3" t="n"/>
-      <c r="B91" s="2" t="inlineStr"/>
+      <c r="B91" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="92" ht="16.5" customHeight="1">
       <c r="A92" s="3" t="n"/>
-      <c r="B92" s="2" t="inlineStr"/>
+      <c r="B92" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="93" ht="16.5" customHeight="1">
       <c r="A93" s="3" t="n"/>
-      <c r="B93" s="2" t="inlineStr"/>
+      <c r="B93" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="94" ht="16.5" customHeight="1">
       <c r="A94" s="3" t="n"/>
-      <c r="B94" s="2" t="inlineStr"/>
+      <c r="B94" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="95" ht="16.5" customHeight="1">
       <c r="A95" s="3" t="n"/>
-      <c r="B95" s="2" t="inlineStr"/>
+      <c r="B95" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="96" ht="16.5" customHeight="1">
       <c r="A96" s="3" t="n"/>
-      <c r="B96" s="2" t="inlineStr"/>
+      <c r="B96" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="97" ht="16.5" customHeight="1">
       <c r="A97" s="3" t="n"/>
-      <c r="B97" s="2" t="inlineStr"/>
+      <c r="B97" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="98" ht="16.5" customHeight="1">
       <c r="A98" s="3" t="n"/>
-      <c r="B98" s="2" t="inlineStr"/>
+      <c r="B98" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="99" ht="16.5" customHeight="1">
       <c r="A99" s="3" t="n"/>
-      <c r="B99" s="2" t="inlineStr"/>
+      <c r="B99" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="100" ht="16.5" customHeight="1">
       <c r="A100" s="3" t="n"/>
-      <c r="B100" s="2" t="inlineStr"/>
+      <c r="B100" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="101" ht="16.5" customHeight="1">
       <c r="A101" s="3" t="n"/>
-      <c r="B101" s="2" t="inlineStr"/>
+      <c r="B101" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="102" ht="16.5" customHeight="1">
       <c r="A102" s="3" t="n"/>
-      <c r="B102" s="2" t="inlineStr"/>
+      <c r="B102" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="103" ht="16.5" customHeight="1">
       <c r="A103" s="3" t="n"/>
-      <c r="B103" s="2" t="inlineStr"/>
+      <c r="B103" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="104" ht="16.5" customHeight="1">
       <c r="A104" s="3" t="n"/>
-      <c r="B104" s="2" t="inlineStr"/>
+      <c r="B104" s="2" t="inlineStr">
+        <is>
+          <t>×</t>
+        </is>
+      </c>
     </row>
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="3" t="n"/>

--- a/scripts_on_ubuntu/L2_project/ARB_NFT.xlsx
+++ b/scripts_on_ubuntu/L2_project/ARB_NFT.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B194"/>
+  <dimension ref="A1:B200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -569,7 +569,7 @@
       <c r="A32" s="3" t="n"/>
       <c r="B32" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -593,7 +593,7 @@
       <c r="A35" s="3" t="n"/>
       <c r="B35" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -609,7 +609,7 @@
       <c r="A37" s="3" t="n"/>
       <c r="B37" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -625,7 +625,7 @@
       <c r="A39" s="3" t="n"/>
       <c r="B39" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -633,7 +633,7 @@
       <c r="A40" s="3" t="n"/>
       <c r="B40" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -649,7 +649,7 @@
       <c r="A42" s="3" t="n"/>
       <c r="B42" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -657,7 +657,7 @@
       <c r="A43" s="3" t="n"/>
       <c r="B43" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -673,7 +673,7 @@
       <c r="A45" s="3" t="n"/>
       <c r="B45" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       <c r="A46" s="3" t="n"/>
       <c r="B46" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -689,7 +689,7 @@
       <c r="A47" s="3" t="n"/>
       <c r="B47" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -697,7 +697,7 @@
       <c r="A48" s="3" t="n"/>
       <c r="B48" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -713,7 +713,7 @@
       <c r="A50" s="3" t="n"/>
       <c r="B50" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -729,7 +729,7 @@
       <c r="A52" s="3" t="n"/>
       <c r="B52" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -737,7 +737,7 @@
       <c r="A53" s="3" t="n"/>
       <c r="B53" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -745,7 +745,7 @@
       <c r="A54" s="3" t="n"/>
       <c r="B54" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -753,7 +753,7 @@
       <c r="A55" s="3" t="n"/>
       <c r="B55" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -761,7 +761,7 @@
       <c r="A56" s="3" t="n"/>
       <c r="B56" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -769,7 +769,7 @@
       <c r="A57" s="3" t="n"/>
       <c r="B57" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -777,7 +777,7 @@
       <c r="A58" s="3" t="n"/>
       <c r="B58" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -801,7 +801,7 @@
       <c r="A61" s="3" t="n"/>
       <c r="B61" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -817,7 +817,7 @@
       <c r="A63" s="3" t="n"/>
       <c r="B63" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -841,7 +841,7 @@
       <c r="A66" s="3" t="n"/>
       <c r="B66" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -849,7 +849,7 @@
       <c r="A67" s="3" t="n"/>
       <c r="B67" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -865,7 +865,7 @@
       <c r="A69" s="3" t="n"/>
       <c r="B69" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -889,7 +889,7 @@
       <c r="A72" s="3" t="n"/>
       <c r="B72" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -905,7 +905,7 @@
       <c r="A74" s="3" t="n"/>
       <c r="B74" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -921,7 +921,7 @@
       <c r="A76" s="3" t="n"/>
       <c r="B76" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -929,7 +929,7 @@
       <c r="A77" s="3" t="n"/>
       <c r="B77" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -953,7 +953,7 @@
       <c r="A80" s="3" t="n"/>
       <c r="B80" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -977,7 +977,7 @@
       <c r="A83" s="3" t="n"/>
       <c r="B83" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -985,7 +985,7 @@
       <c r="A84" s="3" t="n"/>
       <c r="B84" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       <c r="A85" s="3" t="n"/>
       <c r="B85" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1001,7 +1001,7 @@
       <c r="A86" s="3" t="n"/>
       <c r="B86" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1009,7 +1009,7 @@
       <c r="A87" s="3" t="n"/>
       <c r="B87" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1025,7 +1025,7 @@
       <c r="A89" s="3" t="n"/>
       <c r="B89" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1033,7 +1033,7 @@
       <c r="A90" s="3" t="n"/>
       <c r="B90" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1041,7 +1041,7 @@
       <c r="A91" s="3" t="n"/>
       <c r="B91" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1057,7 @@
       <c r="A93" s="3" t="n"/>
       <c r="B93" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1065,7 +1065,7 @@
       <c r="A94" s="3" t="n"/>
       <c r="B94" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1089,7 +1089,7 @@
       <c r="A97" s="3" t="n"/>
       <c r="B97" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1097,7 +1097,7 @@
       <c r="A98" s="3" t="n"/>
       <c r="B98" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1105,7 +1105,7 @@
       <c r="A99" s="3" t="n"/>
       <c r="B99" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1113,7 +1113,7 @@
       <c r="A100" s="3" t="n"/>
       <c r="B100" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1137,7 +1137,7 @@
       <c r="A103" s="3" t="n"/>
       <c r="B103" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
@@ -1145,369 +1145,771 @@
       <c r="A104" s="3" t="n"/>
       <c r="B104" s="2" t="inlineStr">
         <is>
-          <t>×</t>
+          <t>成功</t>
         </is>
       </c>
     </row>
     <row r="105" ht="16.5" customHeight="1">
       <c r="A105" s="3" t="n"/>
-      <c r="B105" s="2" t="inlineStr"/>
+      <c r="B105" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="106" ht="16.5" customHeight="1">
       <c r="A106" s="3" t="n"/>
-      <c r="B106" s="2" t="inlineStr"/>
+      <c r="B106" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="107" ht="16.5" customHeight="1">
       <c r="A107" s="3" t="n"/>
-      <c r="B107" s="2" t="inlineStr"/>
+      <c r="B107" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="108" ht="16.5" customHeight="1">
       <c r="A108" s="3" t="n"/>
-      <c r="B108" s="2" t="inlineStr"/>
+      <c r="B108" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="109" ht="16.5" customHeight="1">
       <c r="A109" s="3" t="n"/>
-      <c r="B109" s="2" t="inlineStr"/>
+      <c r="B109" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="110" ht="16.5" customHeight="1">
       <c r="A110" s="3" t="n"/>
-      <c r="B110" s="2" t="inlineStr"/>
+      <c r="B110" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="111" ht="16.5" customHeight="1">
       <c r="A111" s="3" t="n"/>
-      <c r="B111" s="2" t="inlineStr"/>
+      <c r="B111" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="112" ht="16.5" customHeight="1">
       <c r="A112" s="3" t="n"/>
-      <c r="B112" s="2" t="inlineStr"/>
+      <c r="B112" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="113" ht="16.5" customHeight="1">
       <c r="A113" s="3" t="n"/>
-      <c r="B113" s="2" t="inlineStr"/>
+      <c r="B113" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="114" ht="16.5" customHeight="1">
       <c r="A114" s="3" t="n"/>
-      <c r="B114" s="2" t="inlineStr"/>
+      <c r="B114" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="115" ht="16.5" customHeight="1">
       <c r="A115" s="3" t="n"/>
-      <c r="B115" s="2" t="inlineStr"/>
+      <c r="B115" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="116" ht="16.5" customHeight="1">
       <c r="A116" s="3" t="n"/>
-      <c r="B116" s="2" t="inlineStr"/>
+      <c r="B116" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="117" ht="16.5" customHeight="1">
       <c r="A117" s="3" t="n"/>
-      <c r="B117" s="2" t="inlineStr"/>
+      <c r="B117" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="118" ht="16.5" customHeight="1">
       <c r="A118" s="3" t="n"/>
-      <c r="B118" s="2" t="inlineStr"/>
+      <c r="B118" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="119" ht="16.5" customHeight="1">
       <c r="A119" s="3" t="n"/>
-      <c r="B119" s="2" t="inlineStr"/>
+      <c r="B119" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="120" ht="16.5" customHeight="1">
       <c r="A120" s="3" t="n"/>
-      <c r="B120" s="2" t="inlineStr"/>
+      <c r="B120" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="121" ht="16.5" customHeight="1">
       <c r="A121" s="3" t="n"/>
-      <c r="B121" s="2" t="inlineStr"/>
+      <c r="B121" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="122" ht="16.5" customHeight="1">
       <c r="A122" s="3" t="n"/>
-      <c r="B122" s="2" t="inlineStr"/>
+      <c r="B122" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="123" ht="16.5" customHeight="1">
       <c r="A123" s="3" t="n"/>
-      <c r="B123" s="2" t="inlineStr"/>
+      <c r="B123" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="124" ht="16.5" customHeight="1">
       <c r="A124" s="3" t="n"/>
-      <c r="B124" s="2" t="inlineStr"/>
+      <c r="B124" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="125" ht="16.5" customHeight="1">
       <c r="A125" s="3" t="n"/>
-      <c r="B125" s="2" t="inlineStr"/>
+      <c r="B125" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="126" ht="16.5" customHeight="1">
       <c r="A126" s="3" t="n"/>
-      <c r="B126" s="2" t="inlineStr"/>
+      <c r="B126" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="127" ht="16.5" customHeight="1">
       <c r="A127" s="3" t="n"/>
-      <c r="B127" s="2" t="inlineStr"/>
+      <c r="B127" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="128" ht="16.5" customHeight="1">
       <c r="A128" s="3" t="n"/>
-      <c r="B128" s="2" t="inlineStr"/>
+      <c r="B128" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="129" ht="16.5" customHeight="1">
       <c r="A129" s="3" t="n"/>
-      <c r="B129" s="2" t="inlineStr"/>
+      <c r="B129" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="130" ht="16.5" customHeight="1">
       <c r="A130" s="3" t="n"/>
-      <c r="B130" s="2" t="inlineStr"/>
+      <c r="B130" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="131" ht="16.5" customHeight="1">
       <c r="A131" s="3" t="n"/>
-      <c r="B131" s="2" t="inlineStr"/>
+      <c r="B131" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="132" ht="16.5" customHeight="1">
       <c r="A132" s="3" t="n"/>
-      <c r="B132" s="2" t="inlineStr"/>
+      <c r="B132" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="133" ht="16.5" customHeight="1">
       <c r="A133" s="3" t="n"/>
-      <c r="B133" s="2" t="inlineStr"/>
+      <c r="B133" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="134" ht="16.5" customHeight="1">
       <c r="A134" s="3" t="n"/>
-      <c r="B134" s="2" t="inlineStr"/>
+      <c r="B134" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="135" ht="16.5" customHeight="1">
       <c r="A135" s="3" t="n"/>
-      <c r="B135" s="2" t="inlineStr"/>
+      <c r="B135" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="136" ht="16.5" customHeight="1">
       <c r="A136" s="3" t="n"/>
-      <c r="B136" s="2" t="inlineStr"/>
+      <c r="B136" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="137" ht="16.5" customHeight="1">
       <c r="A137" s="3" t="n"/>
-      <c r="B137" s="2" t="inlineStr"/>
+      <c r="B137" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="138" ht="16.5" customHeight="1">
       <c r="A138" s="3" t="n"/>
-      <c r="B138" s="2" t="inlineStr"/>
+      <c r="B138" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="139" ht="16.5" customHeight="1">
       <c r="A139" s="3" t="n"/>
-      <c r="B139" s="2" t="inlineStr"/>
+      <c r="B139" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="140" ht="16.5" customHeight="1">
       <c r="A140" s="3" t="n"/>
-      <c r="B140" s="2" t="inlineStr"/>
+      <c r="B140" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="141" ht="16.5" customHeight="1">
       <c r="A141" s="3" t="n"/>
-      <c r="B141" s="2" t="inlineStr"/>
+      <c r="B141" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="142" ht="16.5" customHeight="1">
       <c r="A142" s="3" t="n"/>
-      <c r="B142" s="2" t="inlineStr"/>
+      <c r="B142" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="143" ht="16.5" customHeight="1">
       <c r="A143" s="3" t="n"/>
-      <c r="B143" s="2" t="inlineStr"/>
+      <c r="B143" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="144" ht="16.5" customHeight="1">
       <c r="A144" s="3" t="n"/>
-      <c r="B144" s="2" t="inlineStr"/>
+      <c r="B144" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="145" ht="16.5" customHeight="1">
       <c r="A145" s="3" t="n"/>
-      <c r="B145" s="2" t="inlineStr"/>
+      <c r="B145" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="146" ht="16.5" customHeight="1">
       <c r="A146" s="3" t="n"/>
-      <c r="B146" s="2" t="inlineStr"/>
+      <c r="B146" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="147" ht="16.5" customHeight="1">
       <c r="A147" s="3" t="n"/>
-      <c r="B147" s="2" t="inlineStr"/>
+      <c r="B147" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="148" ht="16.5" customHeight="1">
       <c r="A148" s="3" t="n"/>
-      <c r="B148" s="2" t="inlineStr"/>
+      <c r="B148" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="149" ht="16.5" customHeight="1">
       <c r="A149" s="3" t="n"/>
-      <c r="B149" s="2" t="inlineStr"/>
+      <c r="B149" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="150" ht="16.5" customHeight="1">
       <c r="A150" s="3" t="n"/>
-      <c r="B150" s="2" t="inlineStr"/>
+      <c r="B150" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="151" ht="16.5" customHeight="1">
       <c r="A151" s="3" t="n"/>
-      <c r="B151" s="2" t="inlineStr"/>
+      <c r="B151" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="152" ht="16.5" customHeight="1">
       <c r="A152" s="3" t="n"/>
-      <c r="B152" s="2" t="inlineStr"/>
+      <c r="B152" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="153" ht="16.5" customHeight="1">
       <c r="A153" s="3" t="n"/>
-      <c r="B153" s="2" t="inlineStr"/>
+      <c r="B153" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="154" ht="16.5" customHeight="1">
       <c r="A154" s="3" t="n"/>
-      <c r="B154" s="2" t="inlineStr"/>
+      <c r="B154" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="155" ht="16.5" customHeight="1">
       <c r="A155" s="3" t="n"/>
-      <c r="B155" s="2" t="inlineStr"/>
+      <c r="B155" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="156" ht="16.5" customHeight="1">
       <c r="A156" s="3" t="n"/>
-      <c r="B156" s="2" t="inlineStr"/>
+      <c r="B156" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="157" ht="16.5" customHeight="1">
       <c r="A157" s="3" t="n"/>
-      <c r="B157" s="2" t="inlineStr"/>
+      <c r="B157" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="158" ht="16.5" customHeight="1">
       <c r="A158" s="3" t="n"/>
-      <c r="B158" s="2" t="inlineStr"/>
+      <c r="B158" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="159" ht="16.5" customHeight="1">
       <c r="A159" s="3" t="n"/>
-      <c r="B159" s="2" t="inlineStr"/>
+      <c r="B159" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="160" ht="16.5" customHeight="1">
       <c r="A160" s="3" t="n"/>
-      <c r="B160" s="2" t="inlineStr"/>
+      <c r="B160" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="161" ht="16.5" customHeight="1">
       <c r="A161" s="3" t="n"/>
-      <c r="B161" s="2" t="inlineStr"/>
+      <c r="B161" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="162" ht="16.5" customHeight="1">
       <c r="A162" s="3" t="n"/>
-      <c r="B162" s="2" t="inlineStr"/>
+      <c r="B162" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="163" ht="16.5" customHeight="1">
       <c r="A163" s="3" t="n"/>
-      <c r="B163" s="2" t="inlineStr"/>
+      <c r="B163" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="164" ht="16.5" customHeight="1">
       <c r="A164" s="3" t="n"/>
-      <c r="B164" s="2" t="inlineStr"/>
+      <c r="B164" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="165" ht="16.5" customHeight="1">
       <c r="A165" s="3" t="n"/>
-      <c r="B165" s="2" t="inlineStr"/>
+      <c r="B165" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="166" ht="16.5" customHeight="1">
       <c r="A166" s="3" t="n"/>
-      <c r="B166" s="2" t="inlineStr"/>
+      <c r="B166" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="167" ht="16.5" customHeight="1">
       <c r="A167" s="3" t="n"/>
-      <c r="B167" s="2" t="inlineStr"/>
+      <c r="B167" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="168" ht="16.5" customHeight="1">
       <c r="A168" s="3" t="n"/>
-      <c r="B168" s="2" t="inlineStr"/>
+      <c r="B168" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="169" ht="16.5" customHeight="1">
       <c r="A169" s="3" t="n"/>
-      <c r="B169" s="2" t="inlineStr"/>
+      <c r="B169" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="170" ht="16.5" customHeight="1">
       <c r="A170" s="3" t="n"/>
-      <c r="B170" s="2" t="inlineStr"/>
+      <c r="B170" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="171" ht="16.5" customHeight="1">
       <c r="A171" s="3" t="n"/>
-      <c r="B171" s="2" t="inlineStr"/>
+      <c r="B171" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="172" ht="16.5" customHeight="1">
       <c r="A172" s="3" t="n"/>
-      <c r="B172" s="2" t="inlineStr"/>
+      <c r="B172" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="173" ht="16.5" customHeight="1">
       <c r="A173" s="3" t="n"/>
-      <c r="B173" s="2" t="inlineStr"/>
+      <c r="B173" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="174" ht="16.5" customHeight="1">
       <c r="A174" s="3" t="n"/>
-      <c r="B174" s="2" t="inlineStr"/>
+      <c r="B174" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="175" ht="16.5" customHeight="1">
       <c r="A175" s="3" t="n"/>
-      <c r="B175" s="2" t="inlineStr"/>
+      <c r="B175" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="176" ht="16.5" customHeight="1">
       <c r="A176" s="3" t="n"/>
-      <c r="B176" s="2" t="inlineStr"/>
+      <c r="B176" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="177" ht="16.5" customHeight="1">
       <c r="A177" s="3" t="n"/>
-      <c r="B177" s="2" t="inlineStr"/>
+      <c r="B177" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="178" ht="16.5" customHeight="1">
       <c r="A178" s="3" t="n"/>
-      <c r="B178" s="2" t="inlineStr"/>
+      <c r="B178" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="179" ht="16.5" customHeight="1">
       <c r="A179" s="3" t="n"/>
-      <c r="B179" s="2" t="inlineStr"/>
+      <c r="B179" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="180" ht="16.5" customHeight="1">
       <c r="A180" s="3" t="n"/>
-      <c r="B180" s="2" t="inlineStr"/>
+      <c r="B180" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="181" ht="16.5" customHeight="1">
       <c r="A181" s="3" t="n"/>
-      <c r="B181" s="2" t="inlineStr"/>
+      <c r="B181" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="182" ht="16.5" customHeight="1">
       <c r="A182" s="3" t="n"/>
-      <c r="B182" s="2" t="inlineStr"/>
+      <c r="B182" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="183" ht="16.5" customHeight="1">
       <c r="A183" s="3" t="n"/>
-      <c r="B183" s="2" t="inlineStr"/>
+      <c r="B183" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="184" ht="16.5" customHeight="1">
       <c r="A184" s="3" t="n"/>
-      <c r="B184" s="2" t="inlineStr"/>
+      <c r="B184" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="185" ht="16.5" customHeight="1">
       <c r="A185" s="3" t="n"/>
-      <c r="B185" s="2" t="inlineStr"/>
+      <c r="B185" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="186" ht="16.5" customHeight="1">
       <c r="A186" s="3" t="n"/>
-      <c r="B186" s="2" t="inlineStr"/>
+      <c r="B186" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="187" ht="16.5" customHeight="1">
       <c r="A187" s="3" t="n"/>
-      <c r="B187" s="2" t="inlineStr"/>
+      <c r="B187" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="188" ht="16.5" customHeight="1">
       <c r="A188" s="3" t="n"/>
-      <c r="B188" s="2" t="inlineStr"/>
+      <c r="B188" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="189" ht="16.5" customHeight="1">
       <c r="A189" s="3" t="n"/>
-      <c r="B189" s="2" t="inlineStr"/>
+      <c r="B189" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="190" ht="16.5" customHeight="1">
       <c r="A190" s="3" t="n"/>
-      <c r="B190" s="2" t="inlineStr"/>
+      <c r="B190" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="191" ht="16.5" customHeight="1">
       <c r="A191" s="3" t="n"/>
-      <c r="B191" s="2" t="inlineStr"/>
+      <c r="B191" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="192" ht="16.5" customHeight="1">
       <c r="A192" s="3" t="n"/>
-      <c r="B192" s="2" t="inlineStr"/>
+      <c r="B192" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="193" ht="16.5" customHeight="1">
       <c r="A193" s="3" t="n"/>
-      <c r="B193" s="2" t="inlineStr"/>
+      <c r="B193" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
     <row r="194" ht="16.5" customHeight="1">
       <c r="A194" s="3" t="n"/>
-      <c r="B194" s="2" t="inlineStr"/>
+      <c r="B194" s="2" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>成功</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
